--- a/Domain Tables 20221226.xlsx
+++ b/Domain Tables 20221226.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sageg\SIG Dropbox\Carl Rudeen\PC414 Million Acre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449AD7DB-85F7-4988-8370-15774337B48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27368B9E-B36F-4945-845A-E65D0D1B790B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="816" firstSheet="2" activeTab="3" xr2:uid="{74A246E4-10EC-4818-A688-D902679151D2}"/>
+    <workbookView xWindow="7110" yWindow="0" windowWidth="22485" windowHeight="12585" tabRatio="816" activeTab="6" xr2:uid="{74A246E4-10EC-4818-A688-D902679151D2}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="678">
   <si>
     <t>Field</t>
   </si>
@@ -2093,6 +2093,12 @@
   </si>
   <si>
     <t>CALFIRE</t>
+  </si>
+  <si>
+    <t>PL_TREAT_BURNED</t>
+  </si>
+  <si>
+    <t>Planned Treatment Burned in Wildfire</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2345,6 +2351,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2651,7 +2659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14107,7 +14115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368EBEB7-EEF4-46CD-8A3F-40C63030B864}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -15140,11 +15148,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC971B3-4A69-4017-832D-1553FD1C3A6E}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48:B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15584,18 +15592,17 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>305</v>
+      <c r="C30" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>677</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15604,13 +15611,13 @@
         <v>262</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15619,13 +15626,13 @@
         <v>262</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15634,13 +15641,13 @@
         <v>262</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15649,13 +15656,13 @@
         <v>262</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15664,13 +15671,13 @@
         <v>262</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15679,13 +15686,13 @@
         <v>262</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15693,14 +15700,14 @@
       <c r="B37" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>628</v>
+      <c r="C37" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15708,14 +15715,14 @@
       <c r="B38" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>585</v>
+      <c r="C38" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15724,13 +15731,13 @@
         <v>262</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>324</v>
+        <v>583</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>325</v>
+        <v>584</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>326</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15739,13 +15746,13 @@
         <v>262</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15754,13 +15761,13 @@
         <v>262</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15769,13 +15776,13 @@
         <v>262</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15784,13 +15791,13 @@
         <v>262</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15799,13 +15806,13 @@
         <v>262</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15814,13 +15821,13 @@
         <v>262</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>102</v>
+        <v>339</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>566</v>
+        <v>340</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>586</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15828,41 +15835,44 @@
       <c r="B46" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="E46" s="3"/>
+      <c r="C46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>344</v>
+      <c r="C47" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15870,13 +15880,13 @@
         <v>262</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>587</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15884,13 +15894,13 @@
         <v>262</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>588</v>
+        <v>348</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>589</v>
+        <v>349</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15898,13 +15908,13 @@
         <v>262</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15912,13 +15922,13 @@
         <v>262</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15926,13 +15936,13 @@
         <v>262</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>350</v>
+        <v>594</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>351</v>
+        <v>595</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>352</v>
+        <v>596</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15940,13 +15950,13 @@
         <v>262</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>113</v>
+        <v>350</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>114</v>
+        <v>351</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15954,27 +15964,27 @@
         <v>262</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>354</v>
+        <v>113</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>355</v>
+        <v>114</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>597</v>
+      <c r="C56" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>631</v>
+        <v>355</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>598</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15982,16 +15992,36 @@
         <v>262</v>
       </c>
       <c r="C57" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
